--- a/ExcellFinales/catalog_unificado.xlsx
+++ b/ExcellFinales/catalog_unificado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U104"/>
+  <dimension ref="A1:U101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5570,7 +5570,7 @@
         </is>
       </c>
       <c r="T71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
@@ -5595,11 +5595,7 @@
           <t>formato_oem_solo</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Bisagra del capó derecha</t>
-        </is>
-      </c>
+      <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
@@ -5609,33 +5605,19 @@
         <v>0</v>
       </c>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>Toyota</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>Auris</t>
-        </is>
-      </c>
-      <c r="O72" t="n">
-        <v>2009</v>
-      </c>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>Toyota Auris (junio de 2009 en adelante)</t>
-        </is>
-      </c>
+      <c r="S72" t="inlineStr"/>
       <c r="T72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>https://www.toyodiy.com/parts/p_J_200906_TOYOTA_AURIS_NZE151H-BHXNK_5303.html</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -5718,7 +5700,7 @@
         </is>
       </c>
       <c r="T73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
@@ -5743,29 +5725,55 @@
           <t>formato_oem_solo</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Radiador, refrigeración del motor</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>355X400X27</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>355</v>
+      </c>
+      <c r="H74" t="n">
+        <v>400</v>
+      </c>
+      <c r="I74" t="n">
+        <v>27</v>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>COMPATIBLE CON VEHÍCULOS QUE UTILIZAN EL NÚMERO OEM 25310-02150</t>
+        </is>
+      </c>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
       <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>Compatible con vehículos que utilizan el número OEM 25310-02150</t>
+        </is>
+      </c>
       <c r="T74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>https://www.autodoc.es/repuestos/oem/2531002150</t>
         </is>
       </c>
     </row>
@@ -5812,7 +5820,7 @@
       <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
@@ -5837,7 +5845,11 @@
           <t>formato_oem_solo</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>EXTENSIÓN, RADIADOR</t>
+        </is>
+      </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
@@ -5855,11 +5867,11 @@
       <c r="R76" t="inlineStr"/>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>https://www.toyotapartsdeal.com/oem/toyota~extension~radiator~53287-yp100.html</t>
         </is>
       </c>
     </row>
@@ -5928,7 +5940,7 @@
         </is>
       </c>
       <c r="T77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
@@ -6001,7 +6013,7 @@
         </is>
       </c>
       <c r="T78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
@@ -6028,7 +6040,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Capó con toma de aire turbo</t>
+          <t>Capó con toma de aire para turbo</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -6075,12 +6087,12 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>2KD-FTV</t>
+          <t>2KD</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>Toyota Hilux 2WD con motor 2.5L 2KD-FTV, años 2012-2015.</t>
+          <t>Toyota Hilux 2WD 2.5 DOHC 16V 2KD KUN35L Manual Diesel 4x2 Camioneta Tailandia</t>
         </is>
       </c>
       <c r="T79" t="b">
@@ -6088,7 +6100,7 @@
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>https://ulti.cl/producto/capot-con-toma-de-aire-turbo-53301-0k111/67645e24715ffd82198812a5 ; https://www.wzl-autoparts.com/products/for-toyota-hilux/hood-sub-assy/53301-0k111-hood-sub-assy-for-toyota-hilux-kun15-16-25-26-35-1kdftv-2kdftv-fortuner-kun5-60-61-2011-2014-kdh-autoparts-1542.html ; https://www.autodoc.es/repuestos/oem/533010k111</t>
+          <t>https://ulti.cl/producto/capot-con-toma-de-aire-turbo-53301-0k111/67645e24715ffd82198812a5 ; https://www.autodoc.es/repuestos/oem/533010k111</t>
         </is>
       </c>
     </row>
@@ -6111,7 +6123,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Capó con toma de aire turbo</t>
+          <t>Capó con toma de aire para turbo</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -6158,12 +6170,12 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>2KD-FTV</t>
+          <t>2KD</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>Toyota Hilux 4WD con motor 2.5L 2KD-FTV, años 2012-2015.</t>
+          <t>Toyota Hilux 4x4 2.5 DOHC 16V 2KD KUN25L Manual Diesel 4x4 Camioneta Tailandia</t>
         </is>
       </c>
       <c r="T80" t="b">
@@ -6171,7 +6183,7 @@
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>https://ulti.cl/producto/capot-con-toma-de-aire-turbo-53301-0k111/67645e24715ffd82198812a5 ; https://www.wzl-autoparts.com/products/for-toyota-hilux/hood-sub-assy/53301-0k111-hood-sub-assy-for-toyota-hilux-kun15-16-25-26-35-1kdftv-2kdftv-fortuner-kun5-60-61-2011-2014-kdh-autoparts-1542.html ; https://www.autodoc.es/repuestos/oem/533010k111</t>
+          <t>https://ulti.cl/producto/capot-con-toma-de-aire-turbo-53301-0k111/67645e24715ffd82198812a5 ; https://www.autodoc.es/repuestos/oem/533010k111</t>
         </is>
       </c>
     </row>
@@ -6194,7 +6206,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Capó con toma de aire turbo</t>
+          <t>Capó con toma de aire para turbo</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -6241,12 +6253,12 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>1KD-FTV</t>
+          <t>1KD</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>Toyota Hilux 4WD con motor 3.0L 1KD-FTV, años 2012-2016.</t>
+          <t>Toyota Hilux 4x4 3.0 DOHC 16V 1KD KUN26L Manual Diesel 4x4 Camioneta Tailandia</t>
         </is>
       </c>
       <c r="T81" t="b">
@@ -6254,15 +6266,19 @@
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>https://ulti.cl/producto/capot-con-toma-de-aire-turbo-53301-0k111/67645e24715ffd82198812a5 ; https://www.wzl-autoparts.com/products/for-toyota-hilux/hood-sub-assy/53301-0k111-hood-sub-assy-for-toyota-hilux-kun15-16-25-26-35-1kdftv-2kdftv-fortuner-kun5-60-61-2011-2014-kdh-autoparts-1542.html ; https://www.autodoc.es/repuestos/oem/533010k111</t>
+          <t>https://ulti.cl/producto/capot-con-toma-de-aire-turbo-53301-0k111/67645e24715ffd82198812a5 ; https://www.autodoc.es/repuestos/oem/533010k111</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr"/>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>53301-12A50</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>53301-0K111</t>
+          <t>53301-12A50</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -6277,22 +6293,22 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Capó con toma de aire turbo</t>
+          <t>Genuine Toyota Hood Sub-Assembly Hood Sub-Assy</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>1500X1200X150</t>
+          <t>72.7X75.6X5.1</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1500</v>
+        <v>72.7</v>
       </c>
       <c r="H82" t="n">
-        <v>1200</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="I82" t="n">
-        <v>150</v>
+        <v>5.1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
@@ -6303,41 +6319,19 @@
           <t>X</t>
         </is>
       </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>Toyota</t>
-        </is>
-      </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>Fortuner</t>
-        </is>
-      </c>
-      <c r="O82" t="n">
-        <v>2011</v>
-      </c>
-      <c r="P82" t="n">
-        <v>2014</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>2KD-FTV</t>
-        </is>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>Toyota Fortuner con motor 2.5L 2KD-FTV, años 2011-2014.</t>
-        </is>
-      </c>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
       <c r="T82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>https://ulti.cl/producto/capot-con-toma-de-aire-turbo-53301-0k111/67645e24715ffd82198812a5 ; https://www.wzl-autoparts.com/products/for-toyota-hilux/hood-sub-assy/53301-0k111-hood-sub-assy-for-toyota-hilux-kun15-16-25-26-35-1kdftv-2kdftv-fortuner-kun5-60-61-2011-2014-kdh-autoparts-1542.html ; https://www.autodoc.es/repuestos/oem/533010k111</t>
+          <t>https://www.toyotapartsdeal.com/oem/toyota~hood~sub~assy~53301-12a50.html</t>
         </is>
       </c>
     </row>
@@ -6345,7 +6339,7 @@
       <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr">
         <is>
-          <t>53301-0K111</t>
+          <t>53301-35180</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -6360,22 +6354,22 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Capó con toma de aire turbo</t>
+          <t>Hood Sub-Assembly</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>1500X1200X150</t>
+          <t>1800X160X1140</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="H83" t="n">
-        <v>1200</v>
+        <v>160</v>
       </c>
       <c r="I83" t="n">
-        <v>150</v>
+        <v>1140</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
@@ -6393,26 +6387,22 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>Fortuner</t>
+          <t>FJ Cruiser</t>
         </is>
       </c>
       <c r="O83" t="n">
-        <v>2011</v>
-      </c>
-      <c r="P83" t="n">
-        <v>2014</v>
-      </c>
-      <c r="Q83" t="n">
-        <v>3</v>
-      </c>
+        <v>2010</v>
+      </c>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
       <c r="R83" t="inlineStr">
         <is>
-          <t>1KD-FTV</t>
+          <t>GSJ15W</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>Toyota Fortuner con motor 3.0L 1KD-FTV, años 2011-2014.</t>
+          <t>Toyota FJ Cruiser GSJ15W producido desde noviembre de 2010 en adelante.</t>
         </is>
       </c>
       <c r="T83" t="b">
@@ -6420,19 +6410,15 @@
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>https://ulti.cl/producto/capot-con-toma-de-aire-turbo-53301-0k111/67645e24715ffd82198812a5 ; https://www.wzl-autoparts.com/products/for-toyota-hilux/hood-sub-assy/53301-0k111-hood-sub-assy-for-toyota-hilux-kun15-16-25-26-35-1kdftv-2kdftv-fortuner-kun5-60-61-2011-2014-kdh-autoparts-1542.html ; https://www.autodoc.es/repuestos/oem/533010k111</t>
+          <t>https://toyota.epc-data.com/fj_cruiser/gsj15w/67546/body/5353/53301/ ; https://www.partsnext.com/toyota/53301-35180-hood-sub-assy/</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>53301-12A50</t>
-        </is>
-      </c>
+      <c r="A84" t="inlineStr"/>
       <c r="B84" t="inlineStr">
         <is>
-          <t>53301-12A50</t>
+          <t>53301-BZ390</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -6447,22 +6433,22 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Genuine Toyota Hood Sub-Assembly Hood Sub-Assy</t>
+          <t>Hood Sub-Assembly</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>72.7X75.6X5.1</t>
+          <t>1350X120X840</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>72.7</v>
+        <v>1350</v>
       </c>
       <c r="H84" t="n">
-        <v>75.59999999999999</v>
+        <v>120</v>
       </c>
       <c r="I84" t="n">
-        <v>5.1</v>
+        <v>840</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
@@ -6473,27 +6459,51 @@
           <t>X</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Rush F800</t>
+        </is>
+      </c>
+      <c r="O84" t="n">
+        <v>2006</v>
+      </c>
+      <c r="P84" t="n">
+        <v>2016</v>
+      </c>
       <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>F800</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>Toyota Rush F800, primera generación (2006–2016).</t>
+        </is>
+      </c>
       <c r="T84" t="b">
         <v>1</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>https://www.toyotapartsdeal.com/oem/toyota~hood~sub~assy~53301-12a50.html</t>
+          <t>https://www.partsnext.com/toyota/53301-bz390-hood-sub-assy/ ; https://yoshiparts.com/parts/toyota-53301BZ390 ; https://toyotadxb.com/spare-parts/toyota/hood-sub-assy-53301bz390/</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr"/>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>52576-52160</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>53301-35180</t>
+          <t>52576-52160</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -6508,22 +6518,22 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Capó (Hood Sub-Assembly)</t>
+          <t>Genuine Toyota Rear Bumper Retainer Retainer, Rear Bumper Side, LH</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>1800X160X1140</t>
+          <t>26.8X6.2X6.1</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1800</v>
+        <v>26.8</v>
       </c>
       <c r="H85" t="n">
-        <v>160</v>
+        <v>6.2</v>
       </c>
       <c r="I85" t="n">
-        <v>1140</v>
+        <v>6.1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
@@ -6536,25 +6546,39 @@
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>TOYOTA</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Prius C</t>
+        </is>
+      </c>
+      <c r="O85" t="n">
+        <v>2012</v>
+      </c>
+      <c r="P85" t="n">
+        <v>2019</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>1NZFXE</t>
+        </is>
+      </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>2012-2019 Toyota Prius C | G, R, V|4 Cyl 1.5L | 1NZFXE; NHP10L-AHXGBA, NHP10L-AHXRBA, NHP10L-AHXVBA | NHP10L-AHXVBA</t>
         </is>
       </c>
       <c r="T85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>https://www.partsnext.com/toyota/53301-35180-hood-sub-assy/</t>
+          <t>https://www.toyotapartsdeal.com/oem/toyota~retainer~rr~bumper~52576-52160.html</t>
         </is>
       </c>
     </row>
@@ -6562,7 +6586,7 @@
       <c r="A86" t="inlineStr"/>
       <c r="B86" t="inlineStr">
         <is>
-          <t>53301-35180</t>
+          <t>52618-02040</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -6577,22 +6601,22 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Capó (Hood Sub-Assembly)</t>
+          <t>Absorbedor inferior del parachoques delantero</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>1800X160X1140</t>
+          <t>1330X60X340</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1800</v>
+        <v>1330</v>
       </c>
       <c r="H86" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="I86" t="n">
-        <v>1140</v>
+        <v>340</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
@@ -6603,19 +6627,31 @@
           <t>X</t>
         </is>
       </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>LEXUS</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
+          <t>Auris</t>
+        </is>
+      </c>
+      <c r="O86" t="n">
+        <v>2012</v>
+      </c>
+      <c r="P86" t="n">
+        <v>2015</v>
+      </c>
       <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>1ZR-FAE</t>
+        </is>
+      </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>Lexus</t>
+          <t>Toyota Auris 2012-2015 con motor 1ZR-FAE.</t>
         </is>
       </c>
       <c r="T86" t="b">
@@ -6623,15 +6659,19 @@
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>https://www.partsnext.com/toyota/53301-35180-hood-sub-assy/</t>
+          <t>https://www.partsnext.com/toyota/52618-02040-absorber-front-bumper-lower/ ; https://www.otocikma.com/ilan/toyota-auris-on-tampon-alt-muhafaza-orjinal-52618-02040-2013-2015-4297027</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr"/>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>52617-52020</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>53301-BZ390</t>
+          <t>52617-52020</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -6646,22 +6686,22 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Conjunto de capó</t>
+          <t>Genuine Toyota ABSPRBER, Radiator Support, Upper Absorber, Radiator Support, Upper</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>1350X120X840</t>
+          <t>30.6X14.6X13.7</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1350</v>
+        <v>30.6</v>
       </c>
       <c r="H87" t="n">
-        <v>120</v>
+        <v>14.6</v>
       </c>
       <c r="I87" t="n">
-        <v>840</v>
+        <v>13.7</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
@@ -6672,31 +6712,53 @@
           <t>X</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>Yaris</t>
+        </is>
+      </c>
+      <c r="O87" t="n">
+        <v>2006</v>
+      </c>
+      <c r="P87" t="n">
+        <v>2011</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>1NZFE</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>2006-2011 Toyota Yaris | RS, STD|4 Cyl 1.5L | 1NZFE; NCP91L-AGMRKA, NCP91L-AGMRKK, NCP91L-AGMVKK, NCP91L-AGPRKA, NCP91L-AGPRKK, NCP91L-AGPVKK, NCP91L-AHMRKA, NCP91L-AHMRKK, NCP91L-AHMVKK, NCP91L-AHPRKA, NCP91L-AHPRKK, NCP91L-AHPVKK | NCP91L-AHPVKK</t>
+        </is>
+      </c>
       <c r="T87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>https://toyotadxb.com/spare-parts/toyota/hood-sub-assy-53301bz390/ ; https://www.partsnext.com/toyota/53301-bz390-hood-sub-assy/</t>
+          <t>https://www.toyotapartsdeal.com/oem/toyota~absprber~radiator~support~upper~52617-52020.html</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>52576-52160</t>
+          <t>52563-35020</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>52576-52160</t>
+          <t>52563-35020</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -6711,22 +6773,22 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Genuine Toyota Rear Bumper Retainer Retainer, Rear Bumper Side, LH</t>
+          <t>Genuine Toyota Retainer, Rear Bumper, Upper LH Retainer, Rear Bumper, Upper LH</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>26.8X6.2X6.1</t>
+          <t>12.8X2.2X1.8</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>26.8</v>
+        <v>12.8</v>
       </c>
       <c r="H88" t="n">
-        <v>6.2</v>
+        <v>2.2</v>
       </c>
       <c r="I88" t="n">
-        <v>6.1</v>
+        <v>1.8</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
@@ -6744,42 +6806,46 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>Prius C</t>
+          <t>4Runner</t>
         </is>
       </c>
       <c r="O88" t="n">
-        <v>2012</v>
+        <v>2005</v>
       </c>
       <c r="P88" t="n">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>1NZFXE</t>
+          <t>1GRFE</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>2012-2019 Toyota Prius C | G, R, V|4 Cyl 1.5L | 1NZFXE; NHP10L-AHXGBA, NHP10L-AHXRBA, NHP10L-AHXVBA | NHP10L-AHXVBA</t>
+          <t>2005-2009 Toyota 4Runner | Limited, SR5|6 Cyl 4.0L, 8 Cyl 4.7L | 1GRFE, 2UZFE; GRN210L-GKAGKA, GRN210L-GKAZKA, GRN210L-GKPGKA, GRN210L-GKPZKA, GRN215L-GKAGKA, GRN215L-GKAZKA, GRN215L-GKPGKA, GRN215L-GKPZKA, UZN210L-GKAGKA, UZN210L-GKAZKA, UZN215L-GKAGKA, UZN215L-GKAZKA | UZN215L-GKAZKA</t>
         </is>
       </c>
       <c r="T88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>https://www.toyotapartsdeal.com/oem/toyota~retainer~rr~bumper~52576-52160.html</t>
+          <t>https://www.toyotapartsdeal.com/oem/toyota~retainer~rear~bumper~upper~lh~52563-35020.html</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr"/>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>52563-35020</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>52618-02040</t>
+          <t>52563-35020</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -6794,22 +6860,22 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Absorbedor inferior del parachoques delantero</t>
+          <t>Genuine Toyota Retainer, Rear Bumper, Upper LH Retainer, Rear Bumper, Upper LH</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>1330X60X340</t>
+          <t>12.8X2.2X1.8</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1330</v>
+        <v>12.8</v>
       </c>
       <c r="H89" t="n">
-        <v>60</v>
+        <v>2.2</v>
       </c>
       <c r="I89" t="n">
-        <v>340</v>
+        <v>1.8</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
@@ -6827,74 +6893,76 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Auris</t>
+          <t>4Runner</t>
         </is>
       </c>
       <c r="O89" t="n">
-        <v>2012</v>
+        <v>2005</v>
       </c>
       <c r="P89" t="n">
-        <v>2015</v>
-      </c>
-      <c r="Q89" t="inlineStr"/>
+        <v>2009</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>1ZR-FAE</t>
+          <t>2UZFE</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>Toyota Auris 2012-2015 con motor 1ZR-FAE.</t>
+          <t>2005-2009 Toyota 4Runner | Limited, SR5|6 Cyl 4.0L, 8 Cyl 4.7L | 1GRFE, 2UZFE; GRN210L-GKAGKA, GRN210L-GKAZKA, GRN210L-GKPGKA, GRN210L-GKPZKA, GRN215L-GKAGKA, GRN215L-GKAZKA, GRN215L-GKPGKA, GRN215L-GKPZKA, UZN210L-GKAGKA, UZN210L-GKAZKA, UZN215L-GKAGKA, UZN215L-GKAZKA | UZN215L-GKAZKA</t>
         </is>
       </c>
       <c r="T89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>https://www.partsnext.com/toyota/52618-02040-absorber-front-bumper-lower/ ; https://www.otocikma.com/ilan/toyota-auris-on-tampon-alt-muhafaza-orjinal-52618-02040-2013-2015-4297027</t>
+          <t>https://www.toyotapartsdeal.com/oem/toyota~retainer~rear~bumper~upper~lh~52563-35020.html</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>52617-52020</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>52617-52020</t>
+          <t>60TKZ3201R﻿</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>proveedor_3</t>
+          <t>proveedor_4</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>formato_oem_solo</t>
+          <t>formato_nombre_embebido</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Genuine Toyota ABSPRBER, Radiator Support, Upper Absorber, Radiator Support, Upper</t>
+          <t>KIT EMBRAGUE CHEVROLET DMAX 2.5 275X24X25.6 PLANO</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>30.6X14.6X13.7</t>
+          <t>275X24X25.6</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>30.6</v>
+        <v>275</v>
       </c>
       <c r="H90" t="n">
-        <v>14.6</v>
+        <v>24</v>
       </c>
       <c r="I90" t="n">
-        <v>13.7</v>
+        <v>25.6</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
@@ -6907,81 +6975,73 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>CHEVROLET</t>
         </is>
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>Yaris</t>
-        </is>
-      </c>
-      <c r="O90" t="n">
-        <v>2006</v>
-      </c>
-      <c r="P90" t="n">
-        <v>2011</v>
-      </c>
+          <t>DMAX</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
       <c r="Q90" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t>1NZFE</t>
-        </is>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr">
         <is>
-          <t>2006-2011 Toyota Yaris | RS, STD|4 Cyl 1.5L | 1NZFE; NCP91L-AGMRKA, NCP91L-AGMRKK, NCP91L-AGMVKK, NCP91L-AGPRKA, NCP91L-AGPRKK, NCP91L-AGPVKK, NCP91L-AHMRKA, NCP91L-AHMRKK, NCP91L-AHMVKK, NCP91L-AHPRKA, NCP91L-AHPRKK, NCP91L-AHPVKK | NCP91L-AHPVKK</t>
+          <t>KIT EMBRAGUE CHEVROLET DMAX 2.5 275X24X25.6 PLANO</t>
         </is>
       </c>
       <c r="T90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>https://www.toyotapartsdeal.com/oem/toyota~absprber~radiator~support~upper~52617-52020.html</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>52563-35020</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>52563-35020</t>
+          <t>8-97109-246-0</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>proveedor_3</t>
+          <t>proveedor_4</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>formato_oem_solo</t>
+          <t>formato_nombre_embebido</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Genuine Toyota Retainer, Rear Bumper, Upper LH Retainer, Rear Bumper, Upper LH</t>
+          <t>KIT EMBRAGUE CHEVROLET DMAX 3.0 250X24X25.6 PROFUNDIDAD</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>12.8X2.2X1.8</t>
+          <t>250X24X25.6</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>12.8</v>
+        <v>250</v>
       </c>
       <c r="H91" t="n">
-        <v>2.2</v>
+        <v>24</v>
       </c>
       <c r="I91" t="n">
-        <v>1.8</v>
+        <v>25.6</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
@@ -6994,81 +7054,73 @@
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>Toyota</t>
+          <t>CHEVROLET</t>
         </is>
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>4Runner</t>
-        </is>
-      </c>
-      <c r="O91" t="n">
-        <v>2005</v>
-      </c>
-      <c r="P91" t="n">
-        <v>2009</v>
-      </c>
+          <t>DMAX</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
       <c r="Q91" t="n">
-        <v>4</v>
-      </c>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t>1GRFE</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R91" t="inlineStr"/>
       <c r="S91" t="inlineStr">
         <is>
-          <t>2005-2009 Toyota 4Runner | Limited, SR5|6 Cyl 4.0L, 8 Cyl 4.7L | 1GRFE, 2UZFE; GRN210L-GKAGKA, GRN210L-GKAZKA, GRN210L-GKPGKA, GRN210L-GKPZKA, GRN215L-GKAGKA, GRN215L-GKAZKA, GRN215L-GKPGKA, GRN215L-GKPZKA, UZN210L-GKAGKA, UZN210L-GKAZKA, UZN215L-GKAGKA, UZN215L-GKAZKA | UZN215L-GKAZKA</t>
+          <t>KIT EMBRAGUE CHEVROLET DMAX 3.0 250X24X25.6 PROFUNDIDAD</t>
         </is>
       </c>
       <c r="T91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>https://www.toyotapartsdeal.com/oem/toyota~retainer~rear~bumper~upper~lh~52563-35020.html</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>52563-35020</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>52563-35020</t>
+          <t>24521039</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>proveedor_3</t>
+          <t>proveedor_4</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>formato_oem_solo</t>
+          <t>formato_nombre_embebido</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Genuine Toyota Retainer, Rear Bumper, Upper LH Retainer, Rear Bumper, Upper LH</t>
+          <t>KIT EMBRAGUE CHEVROLET N300 190X18X19.3 PROFUNDIDAD</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>12.8X2.2X1.8</t>
+          <t>190X18X19.3</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>12.8</v>
+        <v>190</v>
       </c>
       <c r="H92" t="n">
-        <v>2.2</v>
+        <v>18</v>
       </c>
       <c r="I92" t="n">
-        <v>1.8</v>
+        <v>19.3</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
@@ -7081,51 +7133,41 @@
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>Toyota</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>4Runner</t>
-        </is>
-      </c>
-      <c r="O92" t="n">
-        <v>2005</v>
-      </c>
-      <c r="P92" t="n">
-        <v>2009</v>
-      </c>
-      <c r="Q92" t="n">
-        <v>4</v>
-      </c>
+          <t>CHEVROLET</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
       <c r="R92" t="inlineStr">
         <is>
-          <t>2UZFE</t>
+          <t>N300</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>2005-2009 Toyota 4Runner | Limited, SR5|6 Cyl 4.0L, 8 Cyl 4.7L | 1GRFE, 2UZFE; GRN210L-GKAGKA, GRN210L-GKAZKA, GRN210L-GKPGKA, GRN210L-GKPZKA, GRN215L-GKAGKA, GRN215L-GKAZKA, GRN215L-GKPGKA, GRN215L-GKPZKA, UZN210L-GKAGKA, UZN210L-GKAZKA, UZN215L-GKAGKA, UZN215L-GKAZKA | UZN215L-GKAZKA</t>
+          <t>KIT EMBRAGUE CHEVROLET N300 190X18X19.3 PROFUNDIDAD</t>
         </is>
       </c>
       <c r="T92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>https://www.toyotapartsdeal.com/oem/toyota~retainer~rear~bumper~upper~lh~52563-35020.html</t>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>60TKZ3201R﻿</t>
+          <t>620.3027-00</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -7140,22 +7182,22 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>KIT EMBRAGUE CHEVROLET DMAX 2.5 275X24X25.6 PLANO</t>
+          <t>KIT EMBRAGUE CHEVROLET CORSA 1.6 200X14X18.8 PROFUNDIDAD</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>275X24X25.6</t>
+          <t>200X14X18.8</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>275</v>
+        <v>200</v>
       </c>
       <c r="H93" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I93" t="n">
-        <v>25.6</v>
+        <v>18.8</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
@@ -7173,18 +7215,18 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>DMAX</t>
+          <t>CORSA</t>
         </is>
       </c>
       <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="R93" t="inlineStr"/>
       <c r="S93" t="inlineStr">
         <is>
-          <t>KIT EMBRAGUE CHEVROLET DMAX 2.5 275X24X25.6 PLANO</t>
+          <t>KIT EMBRAGUE CHEVROLET CORSA 1.6 200X14X18.8 PROFUNDIDAD</t>
         </is>
       </c>
       <c r="T93" t="b">
@@ -7199,12 +7241,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>8-97109-246-0</t>
+          <t>24101874</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -7219,22 +7261,22 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>KIT EMBRAGUE CHEVROLET DMAX 3.0 250X24X25.6 PROFUNDIDAD</t>
+          <t>KIT EMBRAGUE CHEVROLET SAIL 1.5 NEW 215X24X20.4 PLANO</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>250X24X25.6</t>
+          <t>215X24X20.4</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="H94" t="n">
         <v>24</v>
       </c>
       <c r="I94" t="n">
-        <v>25.6</v>
+        <v>20.4</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
@@ -7252,18 +7294,18 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>DMAX</t>
+          <t>SAIL</t>
         </is>
       </c>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr">
         <is>
-          <t>KIT EMBRAGUE CHEVROLET DMAX 3.0 250X24X25.6 PROFUNDIDAD</t>
+          <t>KIT EMBRAGUE CHEVROLET SAIL 1.5 NEW 215X24X20.4 PLANO</t>
         </is>
       </c>
       <c r="T94" t="b">
@@ -7278,12 +7320,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>24521039</t>
+          <t>41100-48700</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -7298,22 +7340,22 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>KIT EMBRAGUE CHEVROLET N300 190X18X19.3 PROFUNDIDAD</t>
+          <t>KIT EMBRAGUE HYUNDAI H1 08-11 250X23X26.0 PROFUNDIDAD</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>190X18X19.3</t>
+          <t>250X23X26.0</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="H95" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I95" t="n">
-        <v>19.3</v>
+        <v>26</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
@@ -7326,21 +7368,25 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>CHEVROLET</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr"/>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
+          <t>HYUNDAI</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>H1</t>
+        </is>
+      </c>
+      <c r="O95" t="n">
+        <v>2008</v>
+      </c>
+      <c r="P95" t="n">
+        <v>2011</v>
+      </c>
       <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>N300</t>
-        </is>
-      </c>
+      <c r="R95" t="inlineStr"/>
       <c r="S95" t="inlineStr">
         <is>
-          <t>KIT EMBRAGUE CHEVROLET N300 190X18X19.3 PROFUNDIDAD</t>
+          <t>KIT EMBRAGUE HYUNDAI H1 08-11 250X23X26.0 PROFUNDIDAD</t>
         </is>
       </c>
       <c r="T95" t="b">
@@ -7355,12 +7401,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>620.3027-00</t>
+          <t>1606876580</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -7375,43 +7421,47 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>KIT EMBRAGUE CHEVROLET CORSA 1.6 200X14X18.8 PROFUNDIDAD</t>
+          <t>KIT EMBRAGUE PEUGEOT PARTNER 1.6 HDI 12- 235X18X20.7 PROFUNDIDAD</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>200X14X18.8</t>
+          <t>12- 235X18X20.7</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="H96" t="n">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="I96" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
+        <v>18</v>
+      </c>
+      <c r="J96" t="n">
+        <v>20.7</v>
+      </c>
       <c r="K96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>-</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>CHEVROLET</t>
+          <t>PEUGEOT</t>
         </is>
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>CORSA</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr"/>
+          <t>PARTNER</t>
+        </is>
+      </c>
+      <c r="O96" t="n">
+        <v>2012</v>
+      </c>
       <c r="P96" t="inlineStr"/>
       <c r="Q96" t="n">
         <v>1.6</v>
@@ -7419,7 +7469,7 @@
       <c r="R96" t="inlineStr"/>
       <c r="S96" t="inlineStr">
         <is>
-          <t>KIT EMBRAGUE CHEVROLET CORSA 1.6 200X14X18.8 PROFUNDIDAD</t>
+          <t>KIT EMBRAGUE PEUGEOT PARTNER 1.6 HDI 12- 235X18X20.7 PROFUNDIDAD</t>
         </is>
       </c>
       <c r="T96" t="b">
@@ -7434,12 +7484,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>24101874</t>
+          <t>510107E</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -7454,22 +7504,22 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>KIT EMBRAGUE CHEVROLET SAIL 1.5 NEW 215X24X20.4 PLANO</t>
+          <t>KIT EMBRAGUE JAC URBAN HFC 1042/ISUZU NKR 3.1 250X24X25.6 PROFUNDIDAD</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>215X24X20.4</t>
+          <t>250X24X25.6</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="H97" t="n">
         <v>24</v>
       </c>
       <c r="I97" t="n">
-        <v>20.4</v>
+        <v>25.6</v>
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
@@ -7482,23 +7532,21 @@
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>CHEVROLET</t>
+          <t>JAC</t>
         </is>
       </c>
       <c r="N97" t="inlineStr">
         <is>
-          <t>SAIL</t>
+          <t>URBAN HFC 1042</t>
         </is>
       </c>
       <c r="O97" t="inlineStr"/>
       <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="Q97" t="inlineStr"/>
       <c r="R97" t="inlineStr"/>
       <c r="S97" t="inlineStr">
         <is>
-          <t>KIT EMBRAGUE CHEVROLET SAIL 1.5 NEW 215X24X20.4 PLANO</t>
+          <t>KIT EMBRAGUE JAC URBAN HFC 1042</t>
         </is>
       </c>
       <c r="T97" t="b">
@@ -7513,12 +7561,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>41100-48700</t>
+          <t>510107E</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -7533,22 +7581,22 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>KIT EMBRAGUE HYUNDAI H1 08-11 250X23X26.0 PROFUNDIDAD</t>
+          <t>KIT EMBRAGUE JAC URBAN HFC 1042/ISUZU NKR 3.1 250X24X25.6 PROFUNDIDAD</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>250X23X26.0</t>
+          <t>250X24X25.6</t>
         </is>
       </c>
       <c r="G98" t="n">
         <v>250</v>
       </c>
       <c r="H98" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I98" t="n">
-        <v>26</v>
+        <v>25.6</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
@@ -7561,25 +7609,23 @@
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>HYUNDAI</t>
+          <t>ISUZU</t>
         </is>
       </c>
       <c r="N98" t="inlineStr">
         <is>
-          <t>H1</t>
-        </is>
-      </c>
-      <c r="O98" t="n">
-        <v>2008</v>
-      </c>
-      <c r="P98" t="n">
-        <v>2011</v>
-      </c>
-      <c r="Q98" t="inlineStr"/>
+          <t>NKR</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="n">
+        <v>3.1</v>
+      </c>
       <c r="R98" t="inlineStr"/>
       <c r="S98" t="inlineStr">
         <is>
-          <t>KIT EMBRAGUE HYUNDAI H1 08-11 250X23X26.0 PROFUNDIDAD</t>
+          <t>ISUZU NKR 3.1 250X24X25.6 PROFUNDIDAD</t>
         </is>
       </c>
       <c r="T98" t="b">
@@ -7594,12 +7640,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>1606876580</t>
+          <t>51712-0X700</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -7614,55 +7660,45 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>KIT EMBRAGUE PEUGEOT PARTNER 1.6 HDI 12- 235X18X20.7 PROFUNDIDAD</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>12- 235X18X20.7</t>
-        </is>
-      </c>
-      <c r="G99" t="n">
-        <v>12</v>
-      </c>
-      <c r="H99" t="n">
-        <v>235</v>
-      </c>
-      <c r="I99" t="n">
-        <v>18</v>
-      </c>
-      <c r="J99" t="n">
-        <v>20.7</v>
-      </c>
+          <t>DISCO FRENO HYUNDAI GRAND I10 1.2 G4LA 16-18 DELANTERO</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>4</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr">
         <is>
-          <t>PEUGEOT</t>
+          <t>HYUNDAI</t>
         </is>
       </c>
       <c r="N99" t="inlineStr">
         <is>
-          <t>PARTNER</t>
+          <t>GRAND I10</t>
         </is>
       </c>
       <c r="O99" t="n">
-        <v>2012</v>
-      </c>
-      <c r="P99" t="inlineStr"/>
+        <v>2016</v>
+      </c>
+      <c r="P99" t="n">
+        <v>2018</v>
+      </c>
       <c r="Q99" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R99" t="inlineStr"/>
+        <v>1.2</v>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>G4LA</t>
+        </is>
+      </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>KIT EMBRAGUE PEUGEOT PARTNER 1.6 HDI 12- 235X18X20.7 PROFUNDIDAD</t>
+          <t>DISCO FRENO HYUNDAI GRAND I10 1.2 G4LA 16-18 DELANTERO</t>
         </is>
       </c>
       <c r="T99" t="b">
@@ -7677,12 +7713,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>510107E</t>
+          <t>4246.W2</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -7697,49 +7733,41 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>KIT EMBRAGUE JAC URBAN HFC 1042/ISUZU NKR 3.1 250X24X25.6 PROFUNDIDAD</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>250X24X25.6</t>
-        </is>
-      </c>
-      <c r="G100" t="n">
-        <v>250</v>
-      </c>
-      <c r="H100" t="n">
-        <v>24</v>
-      </c>
-      <c r="I100" t="n">
-        <v>25.6</v>
-      </c>
+          <t>DISCO FRENO PEUGEOT PARTNER 1.6 09-16 DELANTERO</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>3</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr">
         <is>
-          <t>JAC</t>
+          <t>PEUGEOT</t>
         </is>
       </c>
       <c r="N100" t="inlineStr">
         <is>
-          <t>URBAN HFC 1042</t>
-        </is>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
+          <t>PARTNER</t>
+        </is>
+      </c>
+      <c r="O100" t="n">
+        <v>2009</v>
+      </c>
+      <c r="P100" t="n">
+        <v>2016</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>1.6</v>
+      </c>
       <c r="R100" t="inlineStr"/>
       <c r="S100" t="inlineStr">
         <is>
-          <t>KIT EMBRAGUE JAC URBAN HFC 1042</t>
+          <t>DISCO FRENO PEUGEOT PARTNER 1.6 09-16 DELANTERO</t>
         </is>
       </c>
       <c r="T100" t="b">
@@ -7754,12 +7782,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>510107E</t>
+          <t>96284392</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -7774,266 +7802,45 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>KIT EMBRAGUE JAC URBAN HFC 1042/ISUZU NKR 3.1 250X24X25.6 PROFUNDIDAD</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>250X24X25.6</t>
-        </is>
-      </c>
-      <c r="G101" t="n">
-        <v>250</v>
-      </c>
-      <c r="H101" t="n">
-        <v>24</v>
-      </c>
-      <c r="I101" t="n">
-        <v>25.6</v>
-      </c>
+          <t>DISCO FRENO CHEVROLET SPARK 06-10 MATIZ DELANTERO</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>3</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr">
         <is>
-          <t>ISUZU</t>
+          <t>CHEVROLET</t>
         </is>
       </c>
       <c r="N101" t="inlineStr">
         <is>
-          <t>NKR</t>
-        </is>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="n">
-        <v>3.1</v>
-      </c>
+          <t>SPARK</t>
+        </is>
+      </c>
+      <c r="O101" t="n">
+        <v>2006</v>
+      </c>
+      <c r="P101" t="n">
+        <v>2010</v>
+      </c>
+      <c r="Q101" t="inlineStr"/>
       <c r="R101" t="inlineStr"/>
       <c r="S101" t="inlineStr">
         <is>
-          <t>ISUZU NKR 3.1 250X24X25.6 PROFUNDIDAD</t>
+          <t>DISCO FRENO CHEVROLET SPARK 06-10 MATIZ DELANTERO</t>
         </is>
       </c>
       <c r="T101" t="b">
         <v>0</v>
       </c>
       <c r="U101" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>51712-0X700</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>proveedor_4</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>formato_nombre_embebido</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>DISCO FRENO HYUNDAI GRAND I10 1.2 G4LA 16-18 DELANTERO</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>0</v>
-      </c>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>HYUNDAI</t>
-        </is>
-      </c>
-      <c r="N102" t="inlineStr">
-        <is>
-          <t>GRAND I10</t>
-        </is>
-      </c>
-      <c r="O102" t="n">
-        <v>2016</v>
-      </c>
-      <c r="P102" t="n">
-        <v>2018</v>
-      </c>
-      <c r="Q102" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R102" t="inlineStr">
-        <is>
-          <t>G4LA</t>
-        </is>
-      </c>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>DISCO FRENO HYUNDAI GRAND I10 1.2 G4LA 16-18 DELANTERO</t>
-        </is>
-      </c>
-      <c r="T102" t="b">
-        <v>0</v>
-      </c>
-      <c r="U102" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>4246.W2</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>proveedor_4</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>formato_nombre_embebido</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>DISCO FRENO PEUGEOT PARTNER 1.6 09-16 DELANTERO</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>PEUGEOT</t>
-        </is>
-      </c>
-      <c r="N103" t="inlineStr">
-        <is>
-          <t>PARTNER</t>
-        </is>
-      </c>
-      <c r="O103" t="n">
-        <v>2009</v>
-      </c>
-      <c r="P103" t="n">
-        <v>2016</v>
-      </c>
-      <c r="Q103" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="inlineStr">
-        <is>
-          <t>DISCO FRENO PEUGEOT PARTNER 1.6 09-16 DELANTERO</t>
-        </is>
-      </c>
-      <c r="T103" t="b">
-        <v>0</v>
-      </c>
-      <c r="U103" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>96284392</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>proveedor_4</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>formato_nombre_embebido</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>DISCO FRENO CHEVROLET SPARK 06-10 MATIZ DELANTERO</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>0</v>
-      </c>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>CHEVROLET</t>
-        </is>
-      </c>
-      <c r="N104" t="inlineStr">
-        <is>
-          <t>SPARK</t>
-        </is>
-      </c>
-      <c r="O104" t="n">
-        <v>2006</v>
-      </c>
-      <c r="P104" t="n">
-        <v>2010</v>
-      </c>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="inlineStr">
-        <is>
-          <t>DISCO FRENO CHEVROLET SPARK 06-10 MATIZ DELANTERO</t>
-        </is>
-      </c>
-      <c r="T104" t="b">
-        <v>0</v>
-      </c>
-      <c r="U104" t="inlineStr">
         <is>
           <t>-</t>
         </is>
